--- a/output/redacted_output/HH_analysis_T1_hhSize.xlsx
+++ b/output/redacted_output/HH_analysis_T1_hhSize.xlsx
@@ -213,7 +213,7 @@
     <t>38.0 (19.0-56.0)</t>
   </si>
   <si>
-    <t>778,970 (5.1)</t>
+    <t>778970 (5.1)</t>
   </si>
   <si>
     <t>1146716 (7.5)</t>
@@ -222,7 +222,7 @@
     <t>1112137 (7.3)</t>
   </si>
   <si>
-    <t>929,984 (6.1)</t>
+    <t>929984 (6.1)</t>
   </si>
   <si>
     <t>1813913 (11.9)</t>
@@ -243,10 +243,10 @@
     <t>1193404 (7.8)</t>
   </si>
   <si>
-    <t>432,324 (2.8)</t>
-  </si>
-  <si>
-    <t>50,890 (0.3)</t>
+    <t>432324 (2.8)</t>
+  </si>
+  <si>
+    <t>50890 (0.3)</t>
   </si>
   <si>
     <t>9153730 (59.9)</t>
@@ -255,16 +255,16 @@
     <t>1009000 (6.6)</t>
   </si>
   <si>
-    <t>325,223 (2.1)</t>
-  </si>
-  <si>
-    <t>202,791 (1.3)</t>
-  </si>
-  <si>
-    <t>267,778 (1.8)</t>
-  </si>
-  <si>
-    <t>192,496 (1.3)</t>
+    <t>325223 (2.1)</t>
+  </si>
+  <si>
+    <t>202791 (1.3)</t>
+  </si>
+  <si>
+    <t>267778 (1.8)</t>
+  </si>
+  <si>
+    <t>192496 (1.3)</t>
   </si>
   <si>
     <t>3173716 (20.8)</t>
@@ -276,10 +276,10 @@
     <t>1618158 (10.6)</t>
   </si>
   <si>
-    <t>628,494 (4.1)</t>
-  </si>
-  <si>
-    <t>317,893 (2.1)</t>
+    <t>628494 (4.1)</t>
+  </si>
+  <si>
+    <t>317893 (2.1)</t>
   </si>
   <si>
     <t>6007595 (39.3)</t>
@@ -315,34 +315,34 @@
     <t>1008409 (6.6)</t>
   </si>
   <si>
-    <t>719,267 (4.7)</t>
+    <t>719267 (4.7)</t>
   </si>
   <si>
     <t>1343887 (8.8)</t>
   </si>
   <si>
-    <t>997,211 (6.5)</t>
+    <t>997211 (6.5)</t>
   </si>
   <si>
     <t>3119801 (20.4)</t>
   </si>
   <si>
-    <t>1.22e+07 (79.6)</t>
-  </si>
-  <si>
-    <t>1.49e+07 (97.3)</t>
-  </si>
-  <si>
-    <t>418,055 (2.7)</t>
-  </si>
-  <si>
-    <t>1.46e+07 (95.2)</t>
-  </si>
-  <si>
-    <t>727,641 (4.8)</t>
-  </si>
-  <si>
-    <t>1.30e+07 (85.2)</t>
+    <t>12173802 (79.6)</t>
+  </si>
+  <si>
+    <t>14875548 (97.3)</t>
+  </si>
+  <si>
+    <t>418055 (2.7)</t>
+  </si>
+  <si>
+    <t>14565962 (95.2)</t>
+  </si>
+  <si>
+    <t>727641 (4.8)</t>
+  </si>
+  <si>
+    <t>13032460 (85.2)</t>
   </si>
   <si>
     <t>2261143 (14.8)</t>
@@ -351,31 +351,31 @@
     <t>1076726 (7.0)</t>
   </si>
   <si>
-    <t>1.42e+07 (93.0)</t>
-  </si>
-  <si>
-    <t>1.52e+07 (99.6)</t>
-  </si>
-  <si>
-    <t>62,054 (0.4)</t>
-  </si>
-  <si>
-    <t>1.47e+07 (96.1)</t>
-  </si>
-  <si>
-    <t>601,965 (3.9)</t>
-  </si>
-  <si>
-    <t>1.50e+07 (97.9)</t>
-  </si>
-  <si>
-    <t>319,408 (2.1)</t>
-  </si>
-  <si>
-    <t>1.46e+07 (95.7)</t>
-  </si>
-  <si>
-    <t>664,709 (4.3)</t>
+    <t>14216877 (93.0)</t>
+  </si>
+  <si>
+    <t>15231549 (99.6)</t>
+  </si>
+  <si>
+    <t>62054 (0.4)</t>
+  </si>
+  <si>
+    <t>14691638 (96.1)</t>
+  </si>
+  <si>
+    <t>601965 (3.9)</t>
+  </si>
+  <si>
+    <t>14974195 (97.9)</t>
+  </si>
+  <si>
+    <t>319408 (2.1)</t>
+  </si>
+  <si>
+    <t>14628894 (95.7)</t>
+  </si>
+  <si>
+    <t>664709 (4.3)</t>
   </si>
   <si>
     <t>2-3</t>
@@ -393,25 +393,25 @@
     <t>50.0 (29.0-65.0)</t>
   </si>
   <si>
-    <t>296,395 (3.5)</t>
-  </si>
-  <si>
-    <t>329,952 (3.9)</t>
-  </si>
-  <si>
-    <t>306,686 (3.7)</t>
-  </si>
-  <si>
-    <t>310,706 (3.7)</t>
-  </si>
-  <si>
-    <t>912,744 (10.9)</t>
+    <t>296395 (3.5)</t>
+  </si>
+  <si>
+    <t>329952 (3.9)</t>
+  </si>
+  <si>
+    <t>306686 (3.7)</t>
+  </si>
+  <si>
+    <t>310706 (3.7)</t>
+  </si>
+  <si>
+    <t>912744 (10.9)</t>
   </si>
   <si>
     <t>1069799 (12.7)</t>
   </si>
   <si>
-    <t>946,669 (11.3)</t>
+    <t>946669 (11.3)</t>
   </si>
   <si>
     <t>1363954 (16.2)</t>
@@ -423,28 +423,28 @@
     <t>1100104 (13.1)</t>
   </si>
   <si>
-    <t>399,136 (4.8)</t>
-  </si>
-  <si>
-    <t>44,303 (0.5)</t>
+    <t>399136 (4.8)</t>
+  </si>
+  <si>
+    <t>44303 (0.5)</t>
   </si>
   <si>
     <t>5470150 (65.1)</t>
   </si>
   <si>
-    <t>289,449 (3.4)</t>
-  </si>
-  <si>
-    <t>123,841 (1.5)</t>
-  </si>
-  <si>
-    <t>86,879 (1.0)</t>
-  </si>
-  <si>
-    <t>112,273 (1.3)</t>
-  </si>
-  <si>
-    <t>112,001 (1.3)</t>
+    <t>289449 (3.4)</t>
+  </si>
+  <si>
+    <t>123841 (1.5)</t>
+  </si>
+  <si>
+    <t>86879 (1.0)</t>
+  </si>
+  <si>
+    <t>112273 (1.3)</t>
+  </si>
+  <si>
+    <t>112001 (1.3)</t>
   </si>
   <si>
     <t>2004410 (23.9)</t>
@@ -456,10 +456,10 @@
     <t>1079254 (12.8)</t>
   </si>
   <si>
-    <t>413,190 (4.9)</t>
-  </si>
-  <si>
-    <t>206,345 (2.5)</t>
+    <t>413190 (4.9)</t>
+  </si>
+  <si>
+    <t>206345 (2.5)</t>
   </si>
   <si>
     <t>3455452 (41.1)</t>
@@ -492,16 +492,16 @@
     <t>1543735 (18.4)</t>
   </si>
   <si>
-    <t>439,848 (5.2)</t>
-  </si>
-  <si>
-    <t>412,324 (4.9)</t>
-  </si>
-  <si>
-    <t>805,474 (9.6)</t>
-  </si>
-  <si>
-    <t>574,143 (6.8)</t>
+    <t>439848 (5.2)</t>
+  </si>
+  <si>
+    <t>412324 (4.9)</t>
+  </si>
+  <si>
+    <t>805474 (9.6)</t>
+  </si>
+  <si>
+    <t>574143 (6.8)</t>
   </si>
   <si>
     <t>1928957 (23.0)</t>
@@ -513,13 +513,13 @@
     <t>8056736 (95.9)</t>
   </si>
   <si>
-    <t>343,676 (4.1)</t>
+    <t>343676 (4.1)</t>
   </si>
   <si>
     <t>7812696 (93.0)</t>
   </si>
   <si>
-    <t>587,716 (7.0)</t>
+    <t>587716 (7.0)</t>
   </si>
   <si>
     <t>6590736 (78.5)</t>
@@ -528,7 +528,7 @@
     <t>1809676 (21.5)</t>
   </si>
   <si>
-    <t>778,212 (9.3)</t>
+    <t>778212 (9.3)</t>
   </si>
   <si>
     <t>7622200 (90.7)</t>
@@ -537,25 +537,25 @@
     <t>8355689 (99.5)</t>
   </si>
   <si>
-    <t>44,723 (0.5)</t>
+    <t>44723 (0.5)</t>
   </si>
   <si>
     <t>7896676 (94.0)</t>
   </si>
   <si>
-    <t>503,736 (6.0)</t>
+    <t>503736 (6.0)</t>
   </si>
   <si>
     <t>8144562 (97.0)</t>
   </si>
   <si>
-    <t>255,850 (3.0)</t>
+    <t>255850 (3.0)</t>
   </si>
   <si>
     <t>7947431 (94.6)</t>
   </si>
   <si>
-    <t>452,981 (5.4)</t>
+    <t>452981 (5.4)</t>
   </si>
   <si>
     <t>4-5</t>
@@ -573,82 +573,82 @@
     <t>28.0 (12.0-44.0)</t>
   </si>
   <si>
-    <t>366,244 (6.9)</t>
-  </si>
-  <si>
-    <t>621,348 (11.8)</t>
-  </si>
-  <si>
-    <t>599,829 (11.4)</t>
-  </si>
-  <si>
-    <t>460,916 (8.7)</t>
-  </si>
-  <si>
-    <t>662,638 (12.6)</t>
-  </si>
-  <si>
-    <t>854,382 (16.2)</t>
-  </si>
-  <si>
-    <t>874,465 (16.6)</t>
-  </si>
-  <si>
-    <t>552,838 (10.5)</t>
-  </si>
-  <si>
-    <t>191,018 (3.6)</t>
-  </si>
-  <si>
-    <t>67,990 (1.3)</t>
-  </si>
-  <si>
-    <t>22,918 (0.4)</t>
-  </si>
-  <si>
-    <t>4,254 (0.1)</t>
+    <t>366244 (6.9)</t>
+  </si>
+  <si>
+    <t>621348 (11.8)</t>
+  </si>
+  <si>
+    <t>599829 (11.4)</t>
+  </si>
+  <si>
+    <t>460916 (8.7)</t>
+  </si>
+  <si>
+    <t>662638 (12.6)</t>
+  </si>
+  <si>
+    <t>854382 (16.2)</t>
+  </si>
+  <si>
+    <t>874465 (16.6)</t>
+  </si>
+  <si>
+    <t>552838 (10.5)</t>
+  </si>
+  <si>
+    <t>191018 (3.6)</t>
+  </si>
+  <si>
+    <t>67990 (1.3)</t>
+  </si>
+  <si>
+    <t>22918 (0.4)</t>
+  </si>
+  <si>
+    <t>4254 (0.1)</t>
   </si>
   <si>
     <t>2976370 (56.4)</t>
   </si>
   <si>
-    <t>409,056 (7.7)</t>
-  </si>
-  <si>
-    <t>123,241 (2.3)</t>
-  </si>
-  <si>
-    <t>81,954 (1.6)</t>
-  </si>
-  <si>
-    <t>99,367 (1.9)</t>
-  </si>
-  <si>
-    <t>58,345 (1.1)</t>
-  </si>
-  <si>
-    <t>912,988 (17.3)</t>
-  </si>
-  <si>
-    <t>836,859 (15.9)</t>
-  </si>
-  <si>
-    <t>420,091 (8.0)</t>
-  </si>
-  <si>
-    <t>167,478 (3.2)</t>
-  </si>
-  <si>
-    <t>87,402 (1.7)</t>
+    <t>409056 (7.7)</t>
+  </si>
+  <si>
+    <t>123241 (2.3)</t>
+  </si>
+  <si>
+    <t>81954 (1.6)</t>
+  </si>
+  <si>
+    <t>99367 (1.9)</t>
+  </si>
+  <si>
+    <t>58345 (1.1)</t>
+  </si>
+  <si>
+    <t>912988 (17.3)</t>
+  </si>
+  <si>
+    <t>836859 (15.9)</t>
+  </si>
+  <si>
+    <t>420091 (8.0)</t>
+  </si>
+  <si>
+    <t>167478 (3.2)</t>
+  </si>
+  <si>
+    <t>87402 (1.7)</t>
   </si>
   <si>
     <t>1957094 (37.1)</t>
   </si>
   <si>
-    <t>929,834 (17.6)</t>
-  </si>
-  <si>
-    <t>601,017 (11.4)</t>
+    <t>929834 (17.6)</t>
+  </si>
+  <si>
+    <t>601017 (11.4)</t>
   </si>
   <si>
     <t>1790895 (33.9)</t>
@@ -669,19 +669,19 @@
     <t>1017850 (19.3)</t>
   </si>
   <si>
-    <t>956,181 (18.1)</t>
-  </si>
-  <si>
-    <t>350,926 (6.6)</t>
-  </si>
-  <si>
-    <t>242,389 (4.6)</t>
-  </si>
-  <si>
-    <t>439,120 (8.3)</t>
-  </si>
-  <si>
-    <t>339,100 (6.4)</t>
+    <t>956181 (18.1)</t>
+  </si>
+  <si>
+    <t>350926 (6.6)</t>
+  </si>
+  <si>
+    <t>242389 (4.6)</t>
+  </si>
+  <si>
+    <t>439120 (8.3)</t>
+  </si>
+  <si>
+    <t>339100 (6.4)</t>
   </si>
   <si>
     <t>1013820 (19.2)</t>
@@ -693,22 +693,22 @@
     <t>5221473 (98.9)</t>
   </si>
   <si>
-    <t>57,367 (1.1)</t>
+    <t>57367 (1.1)</t>
   </si>
   <si>
     <t>5173692 (98.0)</t>
   </si>
   <si>
-    <t>105,148 (2.0)</t>
+    <t>105148 (2.0)</t>
   </si>
   <si>
     <t>4932337 (93.4)</t>
   </si>
   <si>
-    <t>346,503 (6.6)</t>
-  </si>
-  <si>
-    <t>211,169 (4.0)</t>
+    <t>346503 (6.6)</t>
+  </si>
+  <si>
+    <t>211169 (4.0)</t>
   </si>
   <si>
     <t>5067671 (96.0)</t>
@@ -717,34 +717,34 @@
     <t>5266287 (99.8)</t>
   </si>
   <si>
-    <t>12,553 (0.2)</t>
+    <t>12553 (0.2)</t>
   </si>
   <si>
     <t>5198566 (98.5)</t>
   </si>
   <si>
-    <t>80,274 (1.5)</t>
+    <t>80274 (1.5)</t>
   </si>
   <si>
     <t>5230916 (99.1)</t>
   </si>
   <si>
-    <t>47,924 (0.9)</t>
+    <t>47924 (0.9)</t>
   </si>
   <si>
     <t>5109003 (96.8)</t>
   </si>
   <si>
-    <t>169,837 (3.2)</t>
+    <t>169837 (3.2)</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>582,813 (48.3)</t>
-  </si>
-  <si>
-    <t>624,240 (51.7)</t>
+    <t>582813 (48.3)</t>
+  </si>
+  <si>
+    <t>624240 (51.7)</t>
   </si>
   <si>
     <t>27.4 (18.7)</t>
@@ -753,118 +753,118 @@
     <t>24.0 (12.0-40.0)</t>
   </si>
   <si>
-    <t>86,676 (7.2)</t>
-  </si>
-  <si>
-    <t>149,286 (12.4)</t>
-  </si>
-  <si>
-    <t>158,048 (13.1)</t>
-  </si>
-  <si>
-    <t>121,165 (10.0)</t>
-  </si>
-  <si>
-    <t>172,346 (14.3)</t>
-  </si>
-  <si>
-    <t>197,824 (16.4)</t>
-  </si>
-  <si>
-    <t>160,697 (13.3)</t>
-  </si>
-  <si>
-    <t>89,062 (7.4)</t>
-  </si>
-  <si>
-    <t>43,878 (3.6)</t>
-  </si>
-  <si>
-    <t>19,324 (1.6)</t>
-  </si>
-  <si>
-    <t>7,308 (0.6)</t>
-  </si>
-  <si>
-    <t>1,439 (0.1)</t>
-  </si>
-  <si>
-    <t>549,438 (45.5)</t>
-  </si>
-  <si>
-    <t>210,095 (17.4)</t>
-  </si>
-  <si>
-    <t>54,731 (4.5)</t>
-  </si>
-  <si>
-    <t>24,787 (2.1)</t>
-  </si>
-  <si>
-    <t>38,268 (3.2)</t>
-  </si>
-  <si>
-    <t>15,888 (1.3)</t>
-  </si>
-  <si>
-    <t>186,785 (15.5)</t>
-  </si>
-  <si>
-    <t>169,222 (14.0)</t>
-  </si>
-  <si>
-    <t>89,572 (7.4)</t>
-  </si>
-  <si>
-    <t>36,703 (3.0)</t>
-  </si>
-  <si>
-    <t>18,651 (1.5)</t>
-  </si>
-  <si>
-    <t>435,657 (36.1)</t>
-  </si>
-  <si>
-    <t>157,530 (13.1)</t>
-  </si>
-  <si>
-    <t>161,099 (13.3)</t>
-  </si>
-  <si>
-    <t>452,767 (37.5)</t>
-  </si>
-  <si>
-    <t>135,702 (11.2)</t>
-  </si>
-  <si>
-    <t>171,309 (14.2)</t>
-  </si>
-  <si>
-    <t>220,287 (18.2)</t>
-  </si>
-  <si>
-    <t>298,875 (24.8)</t>
-  </si>
-  <si>
-    <t>375,303 (31.1)</t>
-  </si>
-  <si>
-    <t>214,468 (17.8)</t>
-  </si>
-  <si>
-    <t>139,961 (11.6)</t>
-  </si>
-  <si>
-    <t>49,089 (4.1)</t>
-  </si>
-  <si>
-    <t>78,813 (6.5)</t>
-  </si>
-  <si>
-    <t>66,618 (5.5)</t>
-  </si>
-  <si>
-    <t>146,784 (12.2)</t>
+    <t>86676 (7.2)</t>
+  </si>
+  <si>
+    <t>149286 (12.4)</t>
+  </si>
+  <si>
+    <t>158048 (13.1)</t>
+  </si>
+  <si>
+    <t>121165 (10.0)</t>
+  </si>
+  <si>
+    <t>172346 (14.3)</t>
+  </si>
+  <si>
+    <t>197824 (16.4)</t>
+  </si>
+  <si>
+    <t>160697 (13.3)</t>
+  </si>
+  <si>
+    <t>89062 (7.4)</t>
+  </si>
+  <si>
+    <t>43878 (3.6)</t>
+  </si>
+  <si>
+    <t>19324 (1.6)</t>
+  </si>
+  <si>
+    <t>7308 (0.6)</t>
+  </si>
+  <si>
+    <t>1439 (0.1)</t>
+  </si>
+  <si>
+    <t>549438 (45.5)</t>
+  </si>
+  <si>
+    <t>210095 (17.4)</t>
+  </si>
+  <si>
+    <t>54731 (4.5)</t>
+  </si>
+  <si>
+    <t>24787 (2.1)</t>
+  </si>
+  <si>
+    <t>38268 (3.2)</t>
+  </si>
+  <si>
+    <t>15888 (1.3)</t>
+  </si>
+  <si>
+    <t>186785 (15.5)</t>
+  </si>
+  <si>
+    <t>169222 (14.0)</t>
+  </si>
+  <si>
+    <t>89572 (7.4)</t>
+  </si>
+  <si>
+    <t>36703 (3.0)</t>
+  </si>
+  <si>
+    <t>18651 (1.5)</t>
+  </si>
+  <si>
+    <t>435657 (36.1)</t>
+  </si>
+  <si>
+    <t>157530 (13.1)</t>
+  </si>
+  <si>
+    <t>161099 (13.3)</t>
+  </si>
+  <si>
+    <t>452767 (37.5)</t>
+  </si>
+  <si>
+    <t>135702 (11.2)</t>
+  </si>
+  <si>
+    <t>171309 (14.2)</t>
+  </si>
+  <si>
+    <t>220287 (18.2)</t>
+  </si>
+  <si>
+    <t>298875 (24.8)</t>
+  </si>
+  <si>
+    <t>375303 (31.1)</t>
+  </si>
+  <si>
+    <t>214468 (17.8)</t>
+  </si>
+  <si>
+    <t>139961 (11.6)</t>
+  </si>
+  <si>
+    <t>49089 (4.1)</t>
+  </si>
+  <si>
+    <t>78813 (6.5)</t>
+  </si>
+  <si>
+    <t>66618 (5.5)</t>
+  </si>
+  <si>
+    <t>146784 (12.2)</t>
   </si>
   <si>
     <t>1060269 (87.8)</t>
@@ -873,22 +873,22 @@
     <t>1193997 (98.9)</t>
   </si>
   <si>
-    <t>13,056 (1.1)</t>
+    <t>13056 (1.1)</t>
   </si>
   <si>
     <t>1181181 (97.9)</t>
   </si>
   <si>
-    <t>25,872 (2.1)</t>
+    <t>25872 (2.1)</t>
   </si>
   <si>
     <t>1128835 (93.5)</t>
   </si>
   <si>
-    <t>78,218 (6.5)</t>
-  </si>
-  <si>
-    <t>62,443 (5.2)</t>
+    <t>78218 (6.5)</t>
+  </si>
+  <si>
+    <t>62443 (5.2)</t>
   </si>
   <si>
     <t>1144610 (94.8)</t>
@@ -897,34 +897,34 @@
     <t>1203628 (99.7)</t>
   </si>
   <si>
-    <t>3,425 (0.3)</t>
+    <t>3425 (0.3)</t>
   </si>
   <si>
     <t>1193024 (98.8)</t>
   </si>
   <si>
-    <t>14,029 (1.2)</t>
+    <t>14029 (1.2)</t>
   </si>
   <si>
     <t>1195695 (99.1)</t>
   </si>
   <si>
-    <t>11,358 (0.9)</t>
+    <t>11358 (0.9)</t>
   </si>
   <si>
     <t>1174579 (97.3)</t>
   </si>
   <si>
-    <t>32,474 (2.7)</t>
+    <t>32474 (2.7)</t>
   </si>
   <si>
     <t>8-10</t>
   </si>
   <si>
-    <t>191,531 (47.0)</t>
-  </si>
-  <si>
-    <t>215,767 (53.0)</t>
+    <t>191531 (47.0)</t>
+  </si>
+  <si>
+    <t>215767 (53.0)</t>
   </si>
   <si>
     <t>28.0 (18.6)</t>
@@ -933,169 +933,169 @@
     <t>26.0 (12.0-40.0)</t>
   </si>
   <si>
-    <t>29,655 (7.3)</t>
-  </si>
-  <si>
-    <t>46,130 (11.3)</t>
-  </si>
-  <si>
-    <t>47,574 (11.7)</t>
-  </si>
-  <si>
-    <t>37,197 (9.1)</t>
-  </si>
-  <si>
-    <t>66,185 (16.2)</t>
-  </si>
-  <si>
-    <t>74,652 (18.3)</t>
-  </si>
-  <si>
-    <t>51,925 (12.7)</t>
-  </si>
-  <si>
-    <t>28,769 (7.1)</t>
-  </si>
-  <si>
-    <t>15,369 (3.8)</t>
-  </si>
-  <si>
-    <t>5,986 (1.5)</t>
-  </si>
-  <si>
-    <t>2,962 (0.7)</t>
+    <t>29655 (7.3)</t>
+  </si>
+  <si>
+    <t>46130 (11.3)</t>
+  </si>
+  <si>
+    <t>47574 (11.7)</t>
+  </si>
+  <si>
+    <t>37197 (9.1)</t>
+  </si>
+  <si>
+    <t>66185 (16.2)</t>
+  </si>
+  <si>
+    <t>74652 (18.3)</t>
+  </si>
+  <si>
+    <t>51925 (12.7)</t>
+  </si>
+  <si>
+    <t>28769 (7.1)</t>
+  </si>
+  <si>
+    <t>15369 (3.8)</t>
+  </si>
+  <si>
+    <t>5986 (1.5)</t>
+  </si>
+  <si>
+    <t>2962 (0.7)</t>
   </si>
   <si>
     <t>894 (0.2)</t>
   </si>
   <si>
-    <t>157,772 (38.7)</t>
-  </si>
-  <si>
-    <t>100,400 (24.7)</t>
-  </si>
-  <si>
-    <t>23,410 (5.7)</t>
-  </si>
-  <si>
-    <t>9,171 (2.3)</t>
-  </si>
-  <si>
-    <t>17,870 (4.4)</t>
-  </si>
-  <si>
-    <t>6,262 (1.5)</t>
-  </si>
-  <si>
-    <t>69,533 (17.1)</t>
-  </si>
-  <si>
-    <t>58,200 (14.3)</t>
-  </si>
-  <si>
-    <t>29,241 (7.2)</t>
-  </si>
-  <si>
-    <t>11,123 (2.7)</t>
-  </si>
-  <si>
-    <t>5,495 (1.3)</t>
-  </si>
-  <si>
-    <t>159,392 (39.1)</t>
-  </si>
-  <si>
-    <t>44,621 (11.0)</t>
-  </si>
-  <si>
-    <t>56,569 (13.9)</t>
-  </si>
-  <si>
-    <t>146,716 (36.0)</t>
-  </si>
-  <si>
-    <t>32,230 (7.9)</t>
-  </si>
-  <si>
-    <t>47,181 (11.6)</t>
-  </si>
-  <si>
-    <t>73,349 (18.0)</t>
-  </si>
-  <si>
-    <t>111,757 (27.4)</t>
-  </si>
-  <si>
-    <t>141,805 (34.8)</t>
-  </si>
-  <si>
-    <t>67,990 (16.7)</t>
-  </si>
-  <si>
-    <t>77,674 (19.1)</t>
-  </si>
-  <si>
-    <t>15,465 (3.8)</t>
-  </si>
-  <si>
-    <t>20,480 (5.0)</t>
-  </si>
-  <si>
-    <t>17,350 (4.3)</t>
-  </si>
-  <si>
-    <t>30,240 (7.4)</t>
-  </si>
-  <si>
-    <t>377,058 (92.6)</t>
-  </si>
-  <si>
-    <t>403,342 (99.0)</t>
-  </si>
-  <si>
-    <t>3,956 (1.0)</t>
-  </si>
-  <si>
-    <t>398,393 (97.8)</t>
-  </si>
-  <si>
-    <t>8,905 (2.2)</t>
-  </si>
-  <si>
-    <t>380,552 (93.4)</t>
-  </si>
-  <si>
-    <t>26,746 (6.6)</t>
-  </si>
-  <si>
-    <t>24,902 (6.1)</t>
-  </si>
-  <si>
-    <t>382,396 (93.9)</t>
-  </si>
-  <si>
-    <t>405,945 (99.7)</t>
-  </si>
-  <si>
-    <t>1,353 (0.3)</t>
-  </si>
-  <si>
-    <t>403,372 (99.0)</t>
-  </si>
-  <si>
-    <t>3,926 (1.0)</t>
-  </si>
-  <si>
-    <t>403,022 (99.0)</t>
-  </si>
-  <si>
-    <t>4,276 (1.0)</t>
-  </si>
-  <si>
-    <t>397,881 (97.7)</t>
-  </si>
-  <si>
-    <t>9,417 (2.3)</t>
+    <t>157772 (38.7)</t>
+  </si>
+  <si>
+    <t>100400 (24.7)</t>
+  </si>
+  <si>
+    <t>23410 (5.7)</t>
+  </si>
+  <si>
+    <t>9171 (2.3)</t>
+  </si>
+  <si>
+    <t>17870 (4.4)</t>
+  </si>
+  <si>
+    <t>6262 (1.5)</t>
+  </si>
+  <si>
+    <t>69533 (17.1)</t>
+  </si>
+  <si>
+    <t>58200 (14.3)</t>
+  </si>
+  <si>
+    <t>29241 (7.2)</t>
+  </si>
+  <si>
+    <t>11123 (2.7)</t>
+  </si>
+  <si>
+    <t>5495 (1.3)</t>
+  </si>
+  <si>
+    <t>159392 (39.1)</t>
+  </si>
+  <si>
+    <t>44621 (11.0)</t>
+  </si>
+  <si>
+    <t>56569 (13.9)</t>
+  </si>
+  <si>
+    <t>146716 (36.0)</t>
+  </si>
+  <si>
+    <t>32230 (7.9)</t>
+  </si>
+  <si>
+    <t>47181 (11.6)</t>
+  </si>
+  <si>
+    <t>73349 (18.0)</t>
+  </si>
+  <si>
+    <t>111757 (27.4)</t>
+  </si>
+  <si>
+    <t>141805 (34.8)</t>
+  </si>
+  <si>
+    <t>67990 (16.7)</t>
+  </si>
+  <si>
+    <t>77674 (19.1)</t>
+  </si>
+  <si>
+    <t>15465 (3.8)</t>
+  </si>
+  <si>
+    <t>20480 (5.0)</t>
+  </si>
+  <si>
+    <t>17350 (4.3)</t>
+  </si>
+  <si>
+    <t>30240 (7.4)</t>
+  </si>
+  <si>
+    <t>377058 (92.6)</t>
+  </si>
+  <si>
+    <t>403342 (99.0)</t>
+  </si>
+  <si>
+    <t>3956 (1.0)</t>
+  </si>
+  <si>
+    <t>398393 (97.8)</t>
+  </si>
+  <si>
+    <t>8905 (2.2)</t>
+  </si>
+  <si>
+    <t>380552 (93.4)</t>
+  </si>
+  <si>
+    <t>26746 (6.6)</t>
+  </si>
+  <si>
+    <t>24902 (6.1)</t>
+  </si>
+  <si>
+    <t>382396 (93.9)</t>
+  </si>
+  <si>
+    <t>405945 (99.7)</t>
+  </si>
+  <si>
+    <t>1353 (0.3)</t>
+  </si>
+  <si>
+    <t>403372 (99.0)</t>
+  </si>
+  <si>
+    <t>3926 (1.0)</t>
+  </si>
+  <si>
+    <t>403022 (99.0)</t>
+  </si>
+  <si>
+    <t>4276 (1.0)</t>
+  </si>
+  <si>
+    <t>397881 (97.7)</t>
+  </si>
+  <si>
+    <t>9417 (2.3)</t>
   </si>
 </sst>
 </file>
